--- a/run1/P04_MF2/T02_optuna/S03_calculate_performances.xlsx
+++ b/run1/P04_MF2/T02_optuna/S03_calculate_performances.xlsx
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8255680945450186</v>
+        <v>0.7973721639469293</v>
       </c>
       <c r="F2" t="n">
-        <v>1.16121505120996</v>
+        <v>1.026082318768731</v>
       </c>
       <c r="G2" t="n">
-        <v>1.843867725787828</v>
+        <v>1.606550204928534</v>
       </c>
       <c r="H2" t="n">
-        <v>1.777474878362421</v>
+        <v>1.585984460911833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1744319054549811</v>
+        <v>0.2026278360530703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09162164590538679</v>
+        <v>0.1973313066192804</v>
       </c>
     </row>
     <row r="3">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9757246660378691</v>
+        <v>0.9902106620671168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8968958266764547</v>
+        <v>0.8431154818759138</v>
       </c>
       <c r="G3" t="n">
-        <v>1.200116903538327</v>
+        <v>1.124609620416062</v>
       </c>
       <c r="H3" t="n">
-        <v>2.424370327712956</v>
+        <v>1.41182958633499</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02427533396213066</v>
+        <v>0.009789337932882947</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.09374231139764855</v>
+        <v>-0.02815850904250006</v>
       </c>
     </row>
     <row r="4">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6577632360585829</v>
+        <v>0.6639023456210208</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5142277688671887</v>
+        <v>0.5957267548731023</v>
       </c>
       <c r="G4" t="n">
-        <v>1.412641672548238</v>
+        <v>1.437842552401497</v>
       </c>
       <c r="H4" t="n">
-        <v>1.356773083330463</v>
+        <v>1.444925207459747</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3422367639414174</v>
+        <v>0.3360976543789794</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3971484893688565</v>
+        <v>0.3016036942349691</v>
       </c>
     </row>
     <row r="5">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.819685332213823</v>
+        <v>0.8171617238783558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8574462155845343</v>
+        <v>0.8216415185059156</v>
       </c>
       <c r="G5" t="n">
-        <v>1.485542100624797</v>
+        <v>1.389667459248698</v>
       </c>
       <c r="H5" t="n">
-        <v>1.85287276313528</v>
+        <v>1.48091308490219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1803146677861766</v>
+        <v>0.1828382761216439</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1316759412921983</v>
+        <v>0.1569254972705828</v>
       </c>
     </row>
     <row r="6">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8453323835065484</v>
+        <v>0.7103892662806934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7309107641498754</v>
+        <v>0.6398334550852735</v>
       </c>
       <c r="G6" t="n">
-        <v>2.097634815821266</v>
+        <v>1.967820454544073</v>
       </c>
       <c r="H6" t="n">
-        <v>1.613134415829054</v>
+        <v>2.029979750544751</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1546676164934516</v>
+        <v>0.2896107337193066</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1622920928732036</v>
+        <v>0.2666771774901862</v>
       </c>
     </row>
     <row r="7">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9524519459298629</v>
+        <v>0.8493287827805337</v>
       </c>
       <c r="F7" t="n">
-        <v>0.981722370049615</v>
+        <v>1.104989913279321</v>
       </c>
       <c r="G7" t="n">
-        <v>1.476813780779724</v>
+        <v>1.591149297545895</v>
       </c>
       <c r="H7" t="n">
-        <v>1.322203130553092</v>
+        <v>1.715567858041726</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04754805407013751</v>
+        <v>0.1506712172194666</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.09743408385155661</v>
+        <v>-0.2352306824623098</v>
       </c>
     </row>
     <row r="8">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6807156119718574</v>
+        <v>0.5762369956829593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8435373225310125</v>
+        <v>0.7077658866212001</v>
       </c>
       <c r="G8" t="n">
-        <v>1.566473929690715</v>
+        <v>2.053174333034185</v>
       </c>
       <c r="H8" t="n">
-        <v>1.262179115926299</v>
+        <v>1.681361756333484</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3192843880281424</v>
+        <v>0.4237630043170405</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2358331278101345</v>
+        <v>0.3588295035965938</v>
       </c>
     </row>
     <row r="9">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8261666471360897</v>
+        <v>0.7119850149147285</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8520568189101677</v>
+        <v>0.8175297516619313</v>
       </c>
       <c r="G9" t="n">
-        <v>1.713640842097236</v>
+        <v>1.870714695041385</v>
       </c>
       <c r="H9" t="n">
-        <v>1.399172220769482</v>
+        <v>1.808969788306654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1738333528639102</v>
+        <v>0.2880149850852713</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1002303789439269</v>
+        <v>0.13009199954149</v>
       </c>
     </row>
     <row r="10">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.8172349862825099</v>
+        <v>0.8595162005770216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9252199750983275</v>
+        <v>1.010974199843328</v>
       </c>
       <c r="G10" t="n">
-        <v>1.807958039208661</v>
+        <v>1.597021571251111</v>
       </c>
       <c r="H10" t="n">
-        <v>1.821604298740423</v>
+        <v>1.485820883828855</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1827650137174895</v>
+        <v>0.1404837994229778</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1777919736133508</v>
+        <v>0.1015854348662697</v>
       </c>
     </row>
     <row r="11">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.9698081101944005</v>
+        <v>0.9494489111102419</v>
       </c>
       <c r="F11" t="n">
-        <v>1.007319846416278</v>
+        <v>0.9067109072275594</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18774170057517</v>
+        <v>1.729393011383429</v>
       </c>
       <c r="H11" t="n">
-        <v>2.193333900282467</v>
+        <v>2.195998010679101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03019188980559906</v>
+        <v>0.05055108888975768</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.09308162763351779</v>
+        <v>0.0160930137618025</v>
       </c>
     </row>
     <row r="12">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6389472606943257</v>
+        <v>0.663072264226962</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5024655908176648</v>
+        <v>0.4988752999108115</v>
       </c>
       <c r="G12" t="n">
-        <v>1.587095530028203</v>
+        <v>1.497294806130865</v>
       </c>
       <c r="H12" t="n">
-        <v>1.124041821737887</v>
+        <v>1.466550831104024</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3610527393056739</v>
+        <v>0.3369277357730377</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3157629377344401</v>
+        <v>0.3206520488450864</v>
       </c>
     </row>
     <row r="13">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8086634523904118</v>
+        <v>0.8240124586380749</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8116684707774234</v>
+        <v>0.805520135660566</v>
       </c>
       <c r="G13" t="n">
-        <v>1.860931756604012</v>
+        <v>1.607903129588468</v>
       </c>
       <c r="H13" t="n">
-        <v>1.712993340253592</v>
+        <v>1.716123241870661</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1913365476095881</v>
+        <v>0.175987541361925</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1334910945714244</v>
+        <v>0.1461101658243865</v>
       </c>
     </row>
     <row r="14">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.831353852790814</v>
+        <v>0.7838492080327275</v>
       </c>
       <c r="F14" t="n">
-        <v>1.06074821461084</v>
+        <v>0.9751786847592923</v>
       </c>
       <c r="G14" t="n">
-        <v>1.566359719351635</v>
+        <v>1.673133266172197</v>
       </c>
       <c r="H14" t="n">
-        <v>3.306022602444577</v>
+        <v>1.679552464319783</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1686461472091859</v>
+        <v>0.2161507919672724</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06209858527206202</v>
+        <v>0.137758182903169</v>
       </c>
     </row>
     <row r="15">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.9708649454280411</v>
+        <v>0.9596299997100851</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9894357284926393</v>
+        <v>1.012754111843218</v>
       </c>
       <c r="G15" t="n">
-        <v>1.83318553112036</v>
+        <v>1.468648732352824</v>
       </c>
       <c r="H15" t="n">
-        <v>1.02226058621276</v>
+        <v>1.045483988504673</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02913505457195831</v>
+        <v>0.04037000028991422</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007370845621238242</v>
+        <v>-0.01602279833179265</v>
       </c>
     </row>
     <row r="16">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6492234454377387</v>
+        <v>0.631103062659382</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5510862427020048</v>
+        <v>0.6282557898950935</v>
       </c>
       <c r="G16" t="n">
-        <v>1.456858273556239</v>
+        <v>1.509911864534439</v>
       </c>
       <c r="H16" t="n">
-        <v>1.310951875679925</v>
+        <v>1.384842041067301</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3507765545622619</v>
+        <v>0.3688969373406186</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3473423723252363</v>
+        <v>0.2559496107261929</v>
       </c>
     </row>
     <row r="17">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8171474145521981</v>
+        <v>0.7915274234673983</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8670900619351612</v>
+        <v>0.872062862165868</v>
       </c>
       <c r="G17" t="n">
-        <v>1.618801174676078</v>
+        <v>1.55056462101982</v>
       </c>
       <c r="H17" t="n">
-        <v>1.879745021445754</v>
+        <v>1.369959497963918</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1828525854478014</v>
+        <v>0.2084725765326012</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1389372677395122</v>
+        <v>0.1258949984325228</v>
       </c>
     </row>
     <row r="18">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.8389791900146716</v>
+        <v>0.6473996431792933</v>
       </c>
       <c r="F18" t="n">
-        <v>1.078529112537291</v>
+        <v>1.004604408078813</v>
       </c>
       <c r="G18" t="n">
-        <v>39.75795620945611</v>
+        <v>54.24693175918434</v>
       </c>
       <c r="H18" t="n">
-        <v>1.436500855411861</v>
+        <v>1.635883498853854</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1610208099853276</v>
+        <v>0.3526003568207061</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07517500208066707</v>
+        <v>0.1385644960241011</v>
       </c>
     </row>
     <row r="19">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.9835396340272841</v>
+        <v>0.901516787318042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8086440443253216</v>
+        <v>0.9070656070946764</v>
       </c>
       <c r="G19" t="n">
-        <v>1.453417891845397</v>
+        <v>1.785936146915202</v>
       </c>
       <c r="H19" t="n">
-        <v>1.256986803834672</v>
+        <v>1.708362856259429</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01646036597271572</v>
+        <v>0.09848321268195792</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.05619835160976017</v>
+        <v>-0.1847502071379614</v>
       </c>
     </row>
     <row r="20">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6714445191523175</v>
+        <v>0.5883785620842971</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5712728967995983</v>
+        <v>0.6112157638666048</v>
       </c>
       <c r="G20" t="n">
-        <v>1.496836103879996</v>
+        <v>1.552360772174343</v>
       </c>
       <c r="H20" t="n">
-        <v>1.356647109522504</v>
+        <v>1.401612244216414</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3285554808476835</v>
+        <v>0.4116214379157038</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3989514061632978</v>
+        <v>0.3569266501860289</v>
       </c>
     </row>
     <row r="21">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8313211143980911</v>
+        <v>0.7124316641938776</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8194820178874034</v>
+        <v>0.8409619263466982</v>
       </c>
       <c r="G21" t="n">
-        <v>14.23607006839383</v>
+        <v>19.1950762260913</v>
       </c>
       <c r="H21" t="n">
-        <v>1.350044922923012</v>
+        <v>1.581952866443232</v>
       </c>
       <c r="I21" t="n">
-        <v>0.168678885601909</v>
+        <v>0.2875683358061226</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1393093522114015</v>
+        <v>0.1035803130240556</v>
       </c>
     </row>
     <row r="22">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6784030169964302</v>
+        <v>0.7025840356950961</v>
       </c>
       <c r="F22" t="n">
-        <v>1.027419426458284</v>
+        <v>1.016747134779053</v>
       </c>
       <c r="G22" t="n">
-        <v>1.831360457395685</v>
+        <v>1.607447323382998</v>
       </c>
       <c r="H22" t="n">
-        <v>2.166205951474842</v>
+        <v>1.970337486600574</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3215969830035694</v>
+        <v>0.2974159643049036</v>
       </c>
       <c r="J22" t="n">
-        <v>0.196285333540463</v>
+        <v>0.2046338980375348</v>
       </c>
     </row>
     <row r="23">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9110376342358188</v>
+        <v>0.9505298393519848</v>
       </c>
       <c r="F23" t="n">
-        <v>0.921604121522453</v>
+        <v>0.8445385135137053</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311993259122882</v>
+        <v>1.047740235162917</v>
       </c>
       <c r="H23" t="n">
-        <v>3.023402308292829</v>
+        <v>2.582867471343618</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08896236576418093</v>
+        <v>0.04947016064801502</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.1238734667802073</v>
+        <v>-0.02989386098239888</v>
       </c>
     </row>
     <row r="24">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5922523548953472</v>
+        <v>0.6734662032293633</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5779693064778688</v>
+        <v>0.6119779191870978</v>
       </c>
       <c r="G24" t="n">
-        <v>1.496189871731028</v>
+        <v>1.290882338827753</v>
       </c>
       <c r="H24" t="n">
-        <v>1.364702507942131</v>
+        <v>1.299452565220857</v>
       </c>
       <c r="I24" t="n">
-        <v>0.407747645104653</v>
+        <v>0.326533796770637</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3224215209610594</v>
+        <v>0.282551749650589</v>
       </c>
     </row>
     <row r="25">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.727231002042532</v>
+        <v>0.7755266927588149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8423309514862017</v>
+        <v>0.8244211891599521</v>
       </c>
       <c r="G25" t="n">
-        <v>1.546514529416531</v>
+        <v>1.315356632457889</v>
       </c>
       <c r="H25" t="n">
-        <v>2.184770255903267</v>
+        <v>1.950885841055016</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2727689979574678</v>
+        <v>0.2244733072411849</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1316111292404382</v>
+        <v>0.1524305955685747</v>
       </c>
     </row>
     <row r="26">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.6937163916050362</v>
+        <v>0.7191259841250918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6816053660582749</v>
+        <v>0.7056596692259786</v>
       </c>
       <c r="G26" t="n">
-        <v>1.980182864243129</v>
+        <v>1.701446315883581</v>
       </c>
       <c r="H26" t="n">
-        <v>2.360315506148843</v>
+        <v>2.00261429046075</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3062836083949638</v>
+        <v>0.2808740158749082</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2188017570774358</v>
+        <v>0.1912327555626645</v>
       </c>
     </row>
     <row r="27">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9187313172566713</v>
+        <v>0.9530318772586579</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9267889317935419</v>
+        <v>0.9114186240123499</v>
       </c>
       <c r="G27" t="n">
-        <v>1.410656968867444</v>
+        <v>1.116156202345312</v>
       </c>
       <c r="H27" t="n">
-        <v>1.217175867830398</v>
+        <v>1.027085475617625</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08126868274332899</v>
+        <v>0.04696812274134243</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.03602585956680016</v>
+        <v>-0.0188439146982966</v>
       </c>
     </row>
     <row r="28">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5980373639200929</v>
+        <v>0.6861107485308174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8072099978992677</v>
+        <v>0.8317900795344604</v>
       </c>
       <c r="G28" t="n">
-        <v>1.870393446388689</v>
+        <v>1.681909481799749</v>
       </c>
       <c r="H28" t="n">
-        <v>1.478115310594866</v>
+        <v>1.123199134147287</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4019626360799069</v>
+        <v>0.3138892514691822</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2687423273172443</v>
+        <v>0.2464750445312521</v>
       </c>
     </row>
     <row r="29">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7368283575939335</v>
+        <v>0.7860895366381891</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8052014319170283</v>
+        <v>0.8162894575909297</v>
       </c>
       <c r="G29" t="n">
-        <v>1.753744426499754</v>
+        <v>1.49983733334288</v>
       </c>
       <c r="H29" t="n">
-        <v>1.685202228191369</v>
+        <v>1.384299633408554</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2631716424060664</v>
+        <v>0.2139104633618106</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1505060749426264</v>
+        <v>0.139621295131873</v>
       </c>
     </row>
     <row r="30">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.6599384386218419</v>
+        <v>0.6969655972167202</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9199364898779673</v>
+        <v>0.8803366304729479</v>
       </c>
       <c r="G30" t="n">
-        <v>1.58301565523483</v>
+        <v>1.334330914583445</v>
       </c>
       <c r="H30" t="n">
-        <v>2.200005252702729</v>
+        <v>1.678757656743403</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3400615613781577</v>
+        <v>0.3030344027832793</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1824872072576673</v>
+        <v>0.2176781057714284</v>
       </c>
     </row>
     <row r="31">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9379340690936212</v>
+        <v>0.9823128121735697</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9217484578838836</v>
+        <v>0.9087828924693617</v>
       </c>
       <c r="G31" t="n">
-        <v>1.826948226832746</v>
+        <v>1.138054115918002</v>
       </c>
       <c r="H31" t="n">
-        <v>2.821255108623626</v>
+        <v>1.124549417637247</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06206593090637835</v>
+        <v>0.01768718782642986</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0002248126024004815</v>
+        <v>0.01384462263896347</v>
       </c>
     </row>
     <row r="32">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6173471273005998</v>
+        <v>0.7164191483917611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4521967287378057</v>
+        <v>0.4700343649640957</v>
       </c>
       <c r="G32" t="n">
-        <v>1.561108785385142</v>
+        <v>1.340606100010305</v>
       </c>
       <c r="H32" t="n">
-        <v>1.242171608881804</v>
+        <v>1.106732264861917</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3826528726993998</v>
+        <v>0.2835808516082385</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3842170152703425</v>
+        <v>0.3599264528272967</v>
       </c>
     </row>
     <row r="33">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.7384065450053544</v>
+        <v>0.7985658525940172</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7646272254998857</v>
+        <v>0.753051295968802</v>
       </c>
       <c r="G33" t="n">
-        <v>1.657024222484239</v>
+        <v>1.270997043503918</v>
       </c>
       <c r="H33" t="n">
-        <v>2.087810656736053</v>
+        <v>1.303346446414189</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2615934549946455</v>
+        <v>0.2014341474059827</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1888264699752031</v>
+        <v>0.1971497270792294</v>
       </c>
     </row>
     <row r="34">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.6929268322492873</v>
+        <v>0.7073899313846433</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7787785190562376</v>
+        <v>0.7787083528756756</v>
       </c>
       <c r="G34" t="n">
-        <v>1.548188510561491</v>
+        <v>1.459404529293507</v>
       </c>
       <c r="H34" t="n">
-        <v>2.17966540693065</v>
+        <v>1.621015215532146</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3070731677507125</v>
+        <v>0.2926100686153565</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3114129585874023</v>
+        <v>0.3114749987201205</v>
       </c>
     </row>
     <row r="35">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.9336774761071269</v>
+        <v>0.9567995855136177</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9846013901868489</v>
+        <v>0.9756648601563385</v>
       </c>
       <c r="G35" t="n">
-        <v>2.165980950179329</v>
+        <v>1.487348800484272</v>
       </c>
       <c r="H35" t="n">
-        <v>1.117848802558713</v>
+        <v>0.9874839434401529</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06632252389287241</v>
+        <v>0.04320041448638168</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01222078686175532</v>
+        <v>0.0211861597422961</v>
       </c>
     </row>
     <row r="36">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.5499060384171371</v>
+        <v>0.5919129198000137</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7357563605885701</v>
+        <v>0.7026834694766491</v>
       </c>
       <c r="G36" t="n">
-        <v>1.512241575809105</v>
+        <v>1.425042284231547</v>
       </c>
       <c r="H36" t="n">
-        <v>1.38307935234736</v>
+        <v>1.275879263677132</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4500939615828633</v>
+        <v>0.4080870801999869</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1286354772822436</v>
+        <v>0.1678040737393397</v>
       </c>
     </row>
     <row r="37">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7255034489245175</v>
+        <v>0.7520341455660916</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8330454232772188</v>
+        <v>0.8190188941695542</v>
       </c>
       <c r="G37" t="n">
-        <v>1.742137012183308</v>
+        <v>1.457265204669776</v>
       </c>
       <c r="H37" t="n">
-        <v>1.560197853945574</v>
+        <v>1.29479280754981</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2744965510754821</v>
+        <v>0.2479658544339079</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1507564075771337</v>
+        <v>0.1668217440672522</v>
       </c>
     </row>
     <row r="38">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.6173196002083439</v>
+        <v>0.6208984737406895</v>
       </c>
       <c r="F38" t="n">
-        <v>1.01116905616066</v>
+        <v>0.9875620538742672</v>
       </c>
       <c r="G38" t="n">
-        <v>31.50720005907907</v>
+        <v>27.34978853691752</v>
       </c>
       <c r="H38" t="n">
-        <v>1.509259895580757</v>
+        <v>1.428414974837768</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3826803997916556</v>
+        <v>0.37910152625931</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1329353937791435</v>
+        <v>0.1531780980201383</v>
       </c>
     </row>
     <row r="39">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8997016496782341</v>
+        <v>0.9115532422189186</v>
       </c>
       <c r="F39" t="n">
-        <v>0.887571394583085</v>
+        <v>0.8461998962833841</v>
       </c>
       <c r="G39" t="n">
-        <v>1.54613256945285</v>
+        <v>1.424406979207939</v>
       </c>
       <c r="H39" t="n">
-        <v>1.629326859672951</v>
+        <v>1.362376808342995</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1002983503217657</v>
+        <v>0.08844675778108113</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1592881323658015</v>
+        <v>-0.1052513672224589</v>
       </c>
     </row>
     <row r="40">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.5726314692408765</v>
+        <v>0.5919080258780737</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7060161401888803</v>
+        <v>0.7049985622198744</v>
       </c>
       <c r="G40" t="n">
-        <v>1.555308958960999</v>
+        <v>1.447164496588211</v>
       </c>
       <c r="H40" t="n">
-        <v>1.341115689878086</v>
+        <v>1.274631979829156</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4273685307591244</v>
+        <v>0.4080919741219272</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2571851199945795</v>
+        <v>0.2582557358260263</v>
       </c>
     </row>
     <row r="41">
@@ -1907,22 +1907,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.6965509063758185</v>
+        <v>0.708119913945894</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8682521969775414</v>
+        <v>0.8462535041258419</v>
       </c>
       <c r="G41" t="n">
-        <v>11.53621386249764</v>
+        <v>10.07378667090456</v>
       </c>
       <c r="H41" t="n">
-        <v>1.493234148377265</v>
+        <v>1.35514125433664</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3034490936241817</v>
+        <v>0.2918800860541061</v>
       </c>
       <c r="J41" t="n">
-        <v>0.07694412713597405</v>
+        <v>0.1020608222079017</v>
       </c>
     </row>
     <row r="42">
@@ -1943,22 +1943,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.530245285798977</v>
+        <v>0.3878493141705602</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9036366402913085</v>
+        <v>0.9388380121371914</v>
       </c>
       <c r="G42" t="n">
-        <v>1.876933726700376</v>
+        <v>1.645120016426856</v>
       </c>
       <c r="H42" t="n">
-        <v>1.673975176172031</v>
+        <v>1.597432680441864</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4697547142010228</v>
+        <v>0.6121506858294397</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2931163240158625</v>
+        <v>0.2655795088618417</v>
       </c>
     </row>
     <row r="43">
@@ -1979,22 +1979,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.7390695383779475</v>
+        <v>0.6142519280937375</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8621214238758301</v>
+        <v>0.8621777923932276</v>
       </c>
       <c r="G43" t="n">
-        <v>1.256978269393503</v>
+        <v>1.20095444162508</v>
       </c>
       <c r="H43" t="n">
-        <v>2.450229705674428</v>
+        <v>2.178714098815666</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2609304616220524</v>
+        <v>0.3857480719062624</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.05133578595135679</v>
+        <v>-0.05140452596627765</v>
       </c>
     </row>
     <row r="44">
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.4210274638944853</v>
+        <v>0.2851011416468955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4691010714556214</v>
+        <v>0.4571761351141054</v>
       </c>
       <c r="G44" t="n">
-        <v>1.183588726015957</v>
+        <v>0.9604064350933459</v>
       </c>
       <c r="H44" t="n">
-        <v>1.17386742142457</v>
+        <v>1.136214168051455</v>
       </c>
       <c r="I44" t="n">
-        <v>0.5789725361055149</v>
+        <v>0.7148988583531046</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4500524734619132</v>
+        <v>0.4640325934066217</v>
       </c>
     </row>
     <row r="45">
@@ -2051,22 +2051,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5634474293571368</v>
+        <v>0.4290674613037311</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7449530452075868</v>
+        <v>0.7527306465481748</v>
       </c>
       <c r="G45" t="n">
-        <v>1.439166907369946</v>
+        <v>1.268826964381761</v>
       </c>
       <c r="H45" t="n">
-        <v>1.766024101090343</v>
+        <v>1.637453649102995</v>
       </c>
       <c r="I45" t="n">
-        <v>0.436552570642863</v>
+        <v>0.5709325386962688</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2306110038421393</v>
+        <v>0.2260691921007284</v>
       </c>
     </row>
     <row r="46">
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.549315206958128</v>
+        <v>0.5391789106794137</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6291999784545226</v>
+        <v>0.5807478116578237</v>
       </c>
       <c r="G46" t="n">
-        <v>1.749648728414452</v>
+        <v>1.552186168655693</v>
       </c>
       <c r="H46" t="n">
-        <v>1.903769686347513</v>
+        <v>1.709845111937331</v>
       </c>
       <c r="I46" t="n">
-        <v>0.450684793041872</v>
+        <v>0.4608210893205863</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2788643662562301</v>
+        <v>0.3343961291387072</v>
       </c>
     </row>
     <row r="47">
@@ -2123,22 +2123,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.7470549032784446</v>
+        <v>0.7415010045599314</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9353302208612958</v>
+        <v>0.9183660695187583</v>
       </c>
       <c r="G47" t="n">
-        <v>1.402685840752335</v>
+        <v>1.345962103055541</v>
       </c>
       <c r="H47" t="n">
-        <v>1.428377008388753</v>
+        <v>1.411941303086873</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2529450967215556</v>
+        <v>0.2584989954400689</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.04557387642874433</v>
+        <v>-0.02661022799321389</v>
       </c>
     </row>
     <row r="48">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.4424920980604841</v>
+        <v>0.439039714518337</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6321629532214171</v>
+        <v>0.6123236787105065</v>
       </c>
       <c r="G48" t="n">
-        <v>1.446858254229476</v>
+        <v>1.442610111322746</v>
       </c>
       <c r="H48" t="n">
-        <v>1.263905403769913</v>
+        <v>1.360815131654233</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5575079019395157</v>
+        <v>0.5609602854816629</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4273187756197258</v>
+        <v>0.4452913251970579</v>
       </c>
     </row>
     <row r="49">
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.579620736099019</v>
+        <v>0.573239876585894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.732231050845745</v>
+        <v>0.7038125199623627</v>
       </c>
       <c r="G49" t="n">
-        <v>1.533064274465421</v>
+        <v>1.446919461011327</v>
       </c>
       <c r="H49" t="n">
-        <v>1.532017366168726</v>
+        <v>1.494200515559479</v>
       </c>
       <c r="I49" t="n">
-        <v>0.420379263900981</v>
+        <v>0.4267601234141059</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2202030884824037</v>
+        <v>0.2510257421141836</v>
       </c>
     </row>
     <row r="50">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.4712881967352412</v>
+        <v>0.4969121463365418</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9162815497360963</v>
+        <v>0.8843872460655757</v>
       </c>
       <c r="G50" t="n">
-        <v>1.598550078805185</v>
+        <v>1.291569454731579</v>
       </c>
       <c r="H50" t="n">
-        <v>2.509459346117437</v>
+        <v>2.120349542075882</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5287118032647584</v>
+        <v>0.503087853663458</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1857352144359491</v>
+        <v>0.2140784767732418</v>
       </c>
     </row>
     <row r="51">
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.725882202763073</v>
+        <v>0.757634430141729</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9623237674095244</v>
+        <v>0.9371932338470063</v>
       </c>
       <c r="G51" t="n">
-        <v>2.143344669399392</v>
+        <v>1.765617872789204</v>
       </c>
       <c r="H51" t="n">
-        <v>3.558817310497561</v>
+        <v>2.333063629467437</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2741177972369266</v>
+        <v>0.2423655698582706</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.04425464635958476</v>
+        <v>-0.01698453485771712</v>
       </c>
     </row>
     <row r="52">
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.4217651035357345</v>
+        <v>0.4531634964276964</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4110239824539807</v>
+        <v>0.4405297269712018</v>
       </c>
       <c r="G52" t="n">
-        <v>1.223944843405938</v>
+        <v>1.092467252130657</v>
       </c>
       <c r="H52" t="n">
-        <v>1.029169108327711</v>
+        <v>0.9670103877399916</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5782348964642653</v>
+        <v>0.5468365035723033</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4402843748616836</v>
+        <v>0.4001046604347355</v>
       </c>
     </row>
     <row r="53">
@@ -2339,22 +2339,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.5396451676780163</v>
+        <v>0.5692366909686556</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7632097665332003</v>
+        <v>0.7540367356279281</v>
       </c>
       <c r="G53" t="n">
-        <v>1.655279863870171</v>
+        <v>1.383218193217147</v>
       </c>
       <c r="H53" t="n">
-        <v>2.365815254980902</v>
+        <v>1.806807853094437</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4603548323219837</v>
+        <v>0.4307633090313445</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1939216476460161</v>
+        <v>0.19906620078342</v>
       </c>
     </row>
     <row r="54">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.5271654157104786</v>
+        <v>0.5132810270037556</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7648182443788889</v>
+        <v>0.7637221643145898</v>
       </c>
       <c r="G54" t="n">
-        <v>1.261215336503692</v>
+        <v>1.245857227878959</v>
       </c>
       <c r="H54" t="n">
-        <v>3.710039892199018</v>
+        <v>3.464666351917375</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4728345842895213</v>
+        <v>0.4867189729962443</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3237564734663593</v>
+        <v>0.3247256148976633</v>
       </c>
     </row>
     <row r="55">
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.7772755765182965</v>
+        <v>0.7440576457662503</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9642084083174824</v>
+        <v>0.9591121857088956</v>
       </c>
       <c r="G55" t="n">
-        <v>2.506627824992534</v>
+        <v>2.621521789197749</v>
       </c>
       <c r="H55" t="n">
-        <v>1.143294261955634</v>
+        <v>1.191903251132634</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2227244234817031</v>
+        <v>0.2559423542337492</v>
       </c>
       <c r="J55" t="n">
-        <v>0.03267958753503342</v>
+        <v>0.03779225831577648</v>
       </c>
     </row>
     <row r="56">
@@ -2447,22 +2447,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.4107088781005378</v>
+        <v>0.387951852776235</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5483434512507699</v>
+        <v>0.5118928103685382</v>
       </c>
       <c r="G56" t="n">
-        <v>1.189458983076881</v>
+        <v>1.157019216352205</v>
       </c>
       <c r="H56" t="n">
-        <v>1.245586040363188</v>
+        <v>1.210910662408542</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5892911218994625</v>
+        <v>0.6120481472237653</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3505906910511633</v>
+        <v>0.3937595945040593</v>
       </c>
     </row>
     <row r="57">
@@ -2483,22 +2483,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5717166234431041</v>
+        <v>0.54843017518208</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7591233679823803</v>
+        <v>0.744909053464008</v>
       </c>
       <c r="G57" t="n">
-        <v>1.652434048191035</v>
+        <v>1.674799411142971</v>
       </c>
       <c r="H57" t="n">
-        <v>2.032973398172614</v>
+        <v>1.95582675515285</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4282833765568955</v>
+        <v>0.4515698248179196</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2356755840175186</v>
+        <v>0.2520924892391662</v>
       </c>
     </row>
     <row r="58">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.472982058790123</v>
+        <v>0.4456664246438342</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9307115492710991</v>
+        <v>0.9414539854365105</v>
       </c>
       <c r="G58" t="n">
-        <v>39.48804632724678</v>
+        <v>43.01514353784263</v>
       </c>
       <c r="H58" t="n">
-        <v>1.702086707907848</v>
+        <v>1.504886818549188</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5270179412098766</v>
+        <v>0.5543335753561655</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2019266827269977</v>
+        <v>0.1927151803309678</v>
       </c>
     </row>
     <row r="59">
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.7137828600044182</v>
+        <v>0.7168033045254536</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8836308231475357</v>
+        <v>0.8809002768238597</v>
       </c>
       <c r="G59" t="n">
-        <v>1.36368507436573</v>
+        <v>1.346172285975789</v>
       </c>
       <c r="H59" t="n">
-        <v>2.368719668690651</v>
+        <v>2.383937531846138</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2862171399955817</v>
+        <v>0.2831966954745463</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.1541412137879246</v>
+        <v>-0.1505747514534781</v>
       </c>
     </row>
     <row r="60">
@@ -2591,22 +2591,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.423780229175673</v>
+        <v>0.4216263316206935</v>
       </c>
       <c r="F60" t="n">
-        <v>0.51748373353918</v>
+        <v>0.5531454793954449</v>
       </c>
       <c r="G60" t="n">
-        <v>1.225063236670967</v>
+        <v>1.26100097085136</v>
       </c>
       <c r="H60" t="n">
-        <v>1.213615756401464</v>
+        <v>1.185128772180917</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5762197708243276</v>
+        <v>0.5783736683793071</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4555441504059298</v>
+        <v>0.4180236548236074</v>
       </c>
     </row>
     <row r="61">
@@ -2627,22 +2627,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.5368483826567383</v>
+        <v>0.528032020263327</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7772753686526049</v>
+        <v>0.7918332472186048</v>
       </c>
       <c r="G61" t="n">
-        <v>14.02559821276117</v>
+        <v>15.2074389315566</v>
       </c>
       <c r="H61" t="n">
-        <v>1.761474044333321</v>
+        <v>1.691317707525414</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4631516173432619</v>
+        <v>0.4719679797366732</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1677765397816674</v>
+        <v>0.1533880279003657</v>
       </c>
     </row>
     <row r="62">
@@ -2666,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.927489871010536</v>
+        <v>0.9441712739946336</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.522935416907427</v>
+        <v>1.499200941434891</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2744567669958311</v>
+        <v>0.2614074826527678</v>
       </c>
     </row>
     <row r="63">
@@ -2702,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8205483244987404</v>
+        <v>0.8248703631428297</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.369114661307265</v>
+        <v>1.41699910231743</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.000638417926847934</v>
+        <v>-0.005909037318682309</v>
       </c>
     </row>
     <row r="64">
@@ -2738,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6772378513519197</v>
+        <v>0.6747881847326103</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.107912412608189</v>
+        <v>1.196368677816086</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2060447014685803</v>
+        <v>0.2089165518652376</v>
       </c>
     </row>
     <row r="65">
@@ -2774,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.808425348953732</v>
+        <v>0.8146099406233575</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1.666654163607626</v>
+        <v>1.370856240522802</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1599543501791877</v>
+        <v>0.1548049990664411</v>
       </c>
     </row>
     <row r="66">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.47611680536219e-14</v>
+        <v>6.809511537611772e-14</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6444099118583594</v>
+        <v>0.6337354153511999</v>
       </c>
       <c r="G66" t="n">
-        <v>1.683043488423387e-07</v>
+        <v>2.005077967412937e-07</v>
       </c>
       <c r="H66" t="n">
-        <v>1.77231831778128</v>
+        <v>1.829582354144427</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9999999999999553</v>
+        <v>0.9999999999999319</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2614320310051743</v>
+        <v>0.2736662332734161</v>
       </c>
     </row>
     <row r="67">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>8.037880133514115e-14</v>
+        <v>1.150495777433731e-13</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9966689313423048</v>
+        <v>0.9750211489362685</v>
       </c>
       <c r="G67" t="n">
-        <v>2.394094522226432e-07</v>
+        <v>2.625661756571524e-07</v>
       </c>
       <c r="H67" t="n">
-        <v>1.497017042665675</v>
+        <v>1.347692141872628</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9999999999999196</v>
+        <v>0.999999999999885</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.1141423369171817</v>
+        <v>-0.08994301644026748</v>
       </c>
     </row>
     <row r="68">
@@ -2879,22 +2879,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.044307067753957e-14</v>
+        <v>7.636797377168995e-14</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8611775326318359</v>
+        <v>0.8862283103550928</v>
       </c>
       <c r="G68" t="n">
-        <v>1.157323556901033e-07</v>
+        <v>1.411848760642207e-07</v>
       </c>
       <c r="H68" t="n">
-        <v>1.319047450818755</v>
+        <v>1.345048552299979</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9999999999999496</v>
+        <v>0.9999999999999236</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2198527273969415</v>
+        <v>0.1971590374470212</v>
       </c>
     </row>
     <row r="69">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.852768002210087e-14</v>
+        <v>8.650422229706023e-14</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8340854586108334</v>
+        <v>0.8316616248808536</v>
       </c>
       <c r="G69" t="n">
-        <v>1.744820522516951e-07</v>
+        <v>2.014196161542222e-07</v>
       </c>
       <c r="H69" t="n">
-        <v>1.52946093708857</v>
+        <v>1.507441016105678</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9999999999999414</v>
+        <v>0.9999999999999135</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1223808071616445</v>
+        <v>0.1269607514267232</v>
       </c>
     </row>
     <row r="70">
@@ -2954,19 +2954,19 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9256145766771261</v>
+        <v>0.9037950010878291</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>2.351031124153069</v>
+        <v>2.264423325443111</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1774413061028719</v>
+        <v>0.1968315383338218</v>
       </c>
     </row>
     <row r="71">
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9455079675775309</v>
+        <v>0.9390849026859606</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3.259953395088317</v>
+        <v>2.98660147040378</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.02600717321020851</v>
+        <v>-0.01903725769523912</v>
       </c>
     </row>
     <row r="72">
@@ -3026,19 +3026,19 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.624896252883846</v>
+        <v>0.6157527915323119</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1.027477724643006</v>
+        <v>1.001963955592127</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1490418764831227</v>
+        <v>0.1614930676660482</v>
       </c>
     </row>
     <row r="73">
@@ -3062,19 +3062,19 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8320062657128343</v>
+        <v>0.8195442317687004</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.212820747961464</v>
+        <v>2.084329583813006</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1001586697919286</v>
+        <v>0.1130957827682103</v>
       </c>
     </row>
     <row r="74">
@@ -3098,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7762388217983228</v>
+        <v>0.7779062915672974</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.216571912819064</v>
+        <v>2.189407533926318</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.3136585297968272</v>
+        <v>0.3121841721370208</v>
       </c>
     </row>
     <row r="75">
@@ -3134,19 +3134,19 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9607135169691795</v>
+        <v>0.9623349837782622</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1.094499369337667</v>
+        <v>1.081463617291435</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03618575872312735</v>
+        <v>0.03455905859374664</v>
       </c>
     </row>
     <row r="76">
@@ -3170,19 +3170,19 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6576782565531084</v>
+        <v>0.6614147443522144</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1.025376223052243</v>
+        <v>1.011654456973158</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2211042529556786</v>
+        <v>0.2166790884826127</v>
       </c>
     </row>
     <row r="77">
@@ -3206,19 +3206,19 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7982101984402035</v>
+        <v>0.8005520065659244</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1.445482501736325</v>
+        <v>1.427508536063637</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1903161804918776</v>
+        <v>0.1878074397377935</v>
       </c>
     </row>
     <row r="78">
@@ -3242,19 +3242,19 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9516678358654078</v>
+        <v>0.9605388944341346</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1.534300729897689</v>
+        <v>1.611475754358711</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1839569334817649</v>
+        <v>0.176350113575843</v>
       </c>
     </row>
     <row r="79">
@@ -3278,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8449804921616253</v>
+        <v>0.8692502824788176</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.942083279609478</v>
+        <v>2.104707907813236</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.1036586607252235</v>
+        <v>-0.1353582851852293</v>
       </c>
     </row>
     <row r="80">
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7415662234755629</v>
+        <v>0.7308291440265995</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.081736705404201</v>
+        <v>1.112696570696054</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2197821070213701</v>
+        <v>0.2310788209751853</v>
       </c>
     </row>
     <row r="81">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8460715171675321</v>
+        <v>0.8535394403131837</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.519373571637123</v>
+        <v>1.609626744289334</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1000267932593035</v>
+        <v>0.09069021645526631</v>
       </c>
     </row>
     <row r="82">
@@ -3383,22 +3383,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6069196342332009</v>
+        <v>0.488847461275416</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9796328722723487</v>
+        <v>0.9029803497600266</v>
       </c>
       <c r="G82" t="n">
-        <v>1.878854242785703</v>
+        <v>1.693261829043416</v>
       </c>
       <c r="H82" t="n">
-        <v>1.5399447440975</v>
+        <v>1.37806872175035</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3930803657667988</v>
+        <v>0.5111525387245838</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2336671013655027</v>
+        <v>0.2936297173894608</v>
       </c>
     </row>
     <row r="83">
@@ -3419,22 +3419,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.8289627392481684</v>
+        <v>0.71043891279393</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8900925821676225</v>
+        <v>0.8948719437316411</v>
       </c>
       <c r="G83" t="n">
-        <v>1.224201137940583</v>
+        <v>1.196852569037091</v>
       </c>
       <c r="H83" t="n">
-        <v>3.396115280331535</v>
+        <v>1.773751628137428</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1710372607518313</v>
+        <v>0.2895610872060699</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.08544592272822316</v>
+        <v>-0.09127423612712193</v>
       </c>
     </row>
     <row r="84">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.5116730269308452</v>
+        <v>0.3703480284144722</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5124307086156779</v>
+        <v>0.4700885504988335</v>
       </c>
       <c r="G84" t="n">
-        <v>1.155790135339489</v>
+        <v>1.026501529813997</v>
       </c>
       <c r="H84" t="n">
-        <v>1.223762915057424</v>
+        <v>1.135566491943948</v>
       </c>
       <c r="I84" t="n">
-        <v>0.4883269730691551</v>
+        <v>0.629651971585528</v>
       </c>
       <c r="J84" t="n">
-        <v>0.399255261023186</v>
+        <v>0.4488948089619419</v>
       </c>
     </row>
     <row r="85">
@@ -3491,22 +3491,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.6491851334707381</v>
+        <v>0.5232114674946063</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7940520543518832</v>
+        <v>0.7559802813301671</v>
       </c>
       <c r="G85" t="n">
-        <v>1.419615172021924</v>
+        <v>1.305538642631501</v>
       </c>
       <c r="H85" t="n">
-        <v>2.053274313162154</v>
+        <v>1.429128947277242</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3508148665292616</v>
+        <v>0.4767885325053934</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1824921465534881</v>
+        <v>0.21708343007476</v>
       </c>
     </row>
     <row r="86">
@@ -3527,22 +3527,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.6486893129627245</v>
+        <v>0.5577959068685296</v>
       </c>
       <c r="F86" t="n">
-        <v>0.710066006306196</v>
+        <v>0.6153923216916101</v>
       </c>
       <c r="G86" t="n">
-        <v>1.860301372562595</v>
+        <v>1.500488827681815</v>
       </c>
       <c r="H86" t="n">
-        <v>1.768468512729715</v>
+        <v>1.517787730886712</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3513106870372755</v>
+        <v>0.4422040931314704</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1861825858366004</v>
+        <v>0.2946895309911318</v>
       </c>
     </row>
     <row r="87">
@@ -3563,22 +3563,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.8251101121103405</v>
+        <v>0.74883149807869</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9601934227374489</v>
+        <v>0.9692708610387161</v>
       </c>
       <c r="G87" t="n">
-        <v>1.216507117262441</v>
+        <v>1.302647113170043</v>
       </c>
       <c r="H87" t="n">
-        <v>1.348004727175519</v>
+        <v>1.468175253616899</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1748898878896599</v>
+        <v>0.2511685019213103</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.07336760508870488</v>
+        <v>-0.0835149649633371</v>
       </c>
     </row>
     <row r="88">
@@ -3599,22 +3599,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.5518917369403411</v>
+        <v>0.4622896072553691</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6826815935683997</v>
+        <v>0.6361816288186213</v>
       </c>
       <c r="G88" t="n">
-        <v>1.583025204931953</v>
+        <v>1.537418850854318</v>
       </c>
       <c r="H88" t="n">
-        <v>1.433254484801127</v>
+        <v>1.205189265286271</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4481082630596587</v>
+        <v>0.5377103927446307</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3815535553382969</v>
+        <v>0.4236782268503518</v>
       </c>
     </row>
     <row r="89">
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.6752303873378018</v>
+        <v>0.5896390040675294</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7843136742040145</v>
+        <v>0.7402816038496493</v>
       </c>
       <c r="G89" t="n">
-        <v>1.553277898252329</v>
+        <v>1.446851597235392</v>
       </c>
       <c r="H89" t="n">
-        <v>1.516575908235454</v>
+        <v>1.397050749929961</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3247696126621982</v>
+        <v>0.4103609959324704</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1647895120287308</v>
+        <v>0.2116175976260485</v>
       </c>
     </row>
     <row r="90">
@@ -3671,22 +3671,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.5530554357415775</v>
+        <v>0.4369058829332578</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8964853159615646</v>
+        <v>0.9097142905051981</v>
       </c>
       <c r="G90" t="n">
-        <v>1.203788379927144</v>
+        <v>1.348991155810935</v>
       </c>
       <c r="H90" t="n">
-        <v>2.020119818953791</v>
+        <v>2.354788821733287</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4469445642584222</v>
+        <v>0.563094117066742</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2033273792613105</v>
+        <v>0.1915712895276401</v>
       </c>
     </row>
     <row r="91">
@@ -3707,22 +3707,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.7858725657407551</v>
+        <v>0.6576153725252145</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9290184204051605</v>
+        <v>0.9420210906706074</v>
       </c>
       <c r="G91" t="n">
-        <v>1.454770606736564</v>
+        <v>1.812307945458315</v>
       </c>
       <c r="H91" t="n">
-        <v>2.494811775522088</v>
+        <v>3.229007110124623</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2141274342592444</v>
+        <v>0.3423846274747853</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.008113729408580461</v>
+        <v>-0.02222342855518389</v>
       </c>
     </row>
     <row r="92">
@@ -3743,22 +3743,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.5230454755814621</v>
+        <v>0.366101196310824</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5024637583313473</v>
+        <v>0.4351291257729035</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9991542852659674</v>
+        <v>1.119032799832915</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8545275174543302</v>
+        <v>1.014694568725826</v>
       </c>
       <c r="I92" t="n">
-        <v>0.4769545244185377</v>
+        <v>0.6338988036891758</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3157654331392549</v>
+        <v>0.4074589779560172</v>
       </c>
     </row>
     <row r="93">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.6206578256879316</v>
+        <v>0.4868741505897652</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7759891648993574</v>
+        <v>0.7622881689829031</v>
       </c>
       <c r="G93" t="n">
-        <v>1.219237757309892</v>
+        <v>1.426777300367388</v>
       </c>
       <c r="H93" t="n">
-        <v>1.789819703976736</v>
+        <v>2.199496833527913</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3793421743120685</v>
+        <v>0.5131258494102348</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1703263609973285</v>
+        <v>0.1922689463094912</v>
       </c>
     </row>
     <row r="94">
@@ -3815,22 +3815,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.6330617372894207</v>
+        <v>0.5146732156664723</v>
       </c>
       <c r="F94" t="n">
-        <v>0.803260371236617</v>
+        <v>0.7693509677599112</v>
       </c>
       <c r="G94" t="n">
-        <v>1.266780858035122</v>
+        <v>1.32678355438663</v>
       </c>
       <c r="H94" t="n">
-        <v>3.303463012586713</v>
+        <v>4.400926342786009</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3669382627105792</v>
+        <v>0.4853267843335276</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2897663854620711</v>
+        <v>0.3197486913998197</v>
       </c>
     </row>
     <row r="95">
@@ -3851,22 +3851,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.8505064709378355</v>
+        <v>0.7079051066221295</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9761109980552173</v>
+        <v>1.0324023442228</v>
       </c>
       <c r="G95" t="n">
-        <v>1.761307168110337</v>
+        <v>2.778696640593164</v>
       </c>
       <c r="H95" t="n">
-        <v>1.15463822056929</v>
+        <v>1.302753418482856</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1494935290621641</v>
+        <v>0.2920948933778701</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02073858192339617</v>
+        <v>-0.03573444581969398</v>
       </c>
     </row>
     <row r="96">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.5052535764060299</v>
+        <v>0.3619880962552178</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5208747193550094</v>
+        <v>0.4948307512934781</v>
       </c>
       <c r="G96" t="n">
-        <v>1.184493871775208</v>
+        <v>1.078215088201153</v>
       </c>
       <c r="H96" t="n">
-        <v>1.154925627245013</v>
+        <v>1.238748670313156</v>
       </c>
       <c r="I96" t="n">
-        <v>0.4947464235939706</v>
+        <v>0.6380119037447826</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3831222187961144</v>
+        <v>0.4139663827275805</v>
       </c>
     </row>
     <row r="97">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.662940594877762</v>
+        <v>0.5281888061812731</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7667486962156146</v>
+        <v>0.765528021092063</v>
       </c>
       <c r="G97" t="n">
-        <v>1.404193965973556</v>
+        <v>1.727898427726982</v>
       </c>
       <c r="H97" t="n">
-        <v>1.871008953467005</v>
+        <v>2.314142810527339</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3370594051222376</v>
+        <v>0.4718111938187264</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2312090620605272</v>
+        <v>0.2326602094359019</v>
       </c>
     </row>
     <row r="98">
@@ -3959,22 +3959,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5338040199443324</v>
+        <v>0.4044755281203216</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9510162000720034</v>
+        <v>0.9734561650131045</v>
       </c>
       <c r="G98" t="n">
-        <v>31.48455386265137</v>
+        <v>37.0423367755611</v>
       </c>
       <c r="H98" t="n">
-        <v>1.418053493036334</v>
+        <v>1.391654298095979</v>
       </c>
       <c r="I98" t="n">
-        <v>0.4661959800556671</v>
+        <v>0.5955244718796779</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1845157028874991</v>
+        <v>0.1652737183284163</v>
       </c>
     </row>
     <row r="99">
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.7852553721486266</v>
+        <v>0.6692388144686171</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8835757841669861</v>
+        <v>0.90584449959057</v>
       </c>
       <c r="G99" t="n">
-        <v>1.105704029347182</v>
+        <v>1.22940022611596</v>
       </c>
       <c r="H99" t="n">
-        <v>1.933064291549958</v>
+        <v>2.614555148725747</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2147446278513733</v>
+        <v>0.3307611855313828</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.1540693254447916</v>
+        <v>-0.1831552757932913</v>
       </c>
     </row>
     <row r="100">
@@ -4031,22 +4031,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.5087091102026332</v>
+        <v>0.3669188884595779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6176918069469333</v>
+        <v>0.5317980033651917</v>
       </c>
       <c r="G100" t="n">
-        <v>1.01092378681411</v>
+        <v>1.03769407321408</v>
       </c>
       <c r="H100" t="n">
-        <v>1.060746768513462</v>
+        <v>1.131124875684807</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4912908897973676</v>
+        <v>0.6330811115404227</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3501130649295542</v>
+        <v>0.4404837969410225</v>
       </c>
     </row>
     <row r="101">
@@ -4067,22 +4067,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.6092561674318642</v>
+        <v>0.4802110770161721</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8174279303953078</v>
+        <v>0.8036995559896222</v>
       </c>
       <c r="G101" t="n">
-        <v>11.20039389293755</v>
+        <v>13.10314369163038</v>
       </c>
       <c r="H101" t="n">
-        <v>1.470621517699918</v>
+        <v>1.712444774168844</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3907438325681358</v>
+        <v>0.5197889229838278</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1268531474574201</v>
+        <v>0.1408674131587155</v>
       </c>
     </row>
     <row r="102">
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.8596565373239579</v>
+        <v>0.7278511094808522</v>
       </c>
       <c r="F102" t="n">
-        <v>1.029258438656826</v>
+        <v>0.9886654487890687</v>
       </c>
       <c r="G102" t="n">
-        <v>1.451123742642004</v>
+        <v>1.415568537209125</v>
       </c>
       <c r="H102" t="n">
-        <v>1.717570256743741</v>
+        <v>1.641791334575077</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1403434626760418</v>
+        <v>0.2721488905191475</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1948467379312073</v>
+        <v>0.2266012293024924</v>
       </c>
     </row>
     <row r="103">
@@ -4139,22 +4139,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1.014664312828564</v>
+        <v>0.9516165068801954</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9339430822518959</v>
+        <v>0.9081570316890939</v>
       </c>
       <c r="G103" t="n">
-        <v>1.17973719702668</v>
+        <v>1.060136961263591</v>
       </c>
       <c r="H103" t="n">
-        <v>4.661130890773376</v>
+        <v>1.941964992568605</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.01466431282856395</v>
+        <v>0.04838349311980439</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.1389205246737371</v>
+        <v>-0.1074750728101843</v>
       </c>
     </row>
     <row r="104">
@@ -4175,22 +4175,22 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.8848734531065537</v>
+        <v>0.7090020706158934</v>
       </c>
       <c r="F104" t="n">
-        <v>0.726863660578963</v>
+        <v>0.6149645163671155</v>
       </c>
       <c r="G104" t="n">
-        <v>1.155398492498751</v>
+        <v>1.166027766365491</v>
       </c>
       <c r="H104" t="n">
-        <v>1.152703387853738</v>
+        <v>1.201801521308229</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1151265468934466</v>
+        <v>0.290997929384107</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1478662135103721</v>
+        <v>0.2790504322760204</v>
       </c>
     </row>
     <row r="105">
@@ -4211,22 +4211,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.9197314344196919</v>
+        <v>0.7961565623256469</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8966883938292286</v>
+        <v>0.8372623322817595</v>
       </c>
       <c r="G105" t="n">
-        <v>1.262086477389144</v>
+        <v>1.213911088279403</v>
       </c>
       <c r="H105" t="n">
-        <v>2.51046817845695</v>
+        <v>1.595185949483971</v>
       </c>
       <c r="I105" t="n">
-        <v>0.08026856558030793</v>
+        <v>0.2038434376743528</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06793080892261365</v>
+        <v>0.1327255295894424</v>
       </c>
     </row>
     <row r="106">
@@ -4247,22 +4247,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.8699510222842282</v>
+        <v>0.7096909958402223</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7860315931732216</v>
+        <v>0.7226302368617407</v>
       </c>
       <c r="G106" t="n">
-        <v>1.774852283094525</v>
+        <v>1.447704633743051</v>
       </c>
       <c r="H106" t="n">
-        <v>1.827674749805849</v>
+        <v>1.590401636406091</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1300489777157718</v>
+        <v>0.2903090041597777</v>
       </c>
       <c r="J106" t="n">
-        <v>0.09911727511833335</v>
+        <v>0.1717825307278407</v>
       </c>
     </row>
     <row r="107">
@@ -4283,22 +4283,22 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1.082119159148217</v>
+        <v>0.9186644587597697</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9208729113987145</v>
+        <v>0.9534815432931215</v>
       </c>
       <c r="G107" t="n">
-        <v>1.757043373820084</v>
+        <v>1.074186470213021</v>
       </c>
       <c r="H107" t="n">
-        <v>1.196167984757696</v>
+        <v>1.22497454906707</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.08211915914821621</v>
+        <v>0.08133554124023068</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.02941254136186155</v>
+        <v>-0.0658646230913249</v>
       </c>
     </row>
     <row r="108">
@@ -4319,22 +4319,22 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.9193864167856134</v>
+        <v>0.7028111843505935</v>
       </c>
       <c r="F108" t="n">
-        <v>1.118148579797301</v>
+        <v>0.9196359647885108</v>
       </c>
       <c r="G108" t="n">
-        <v>1.557855269654296</v>
+        <v>1.383015803028366</v>
       </c>
       <c r="H108" t="n">
-        <v>1.264624279909803</v>
+        <v>1.277030879755159</v>
       </c>
       <c r="I108" t="n">
-        <v>0.08061358321438616</v>
+        <v>0.2971888156494061</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.0129392974616489</v>
+        <v>0.166894789364926</v>
       </c>
     </row>
     <row r="109">
@@ -4355,22 +4355,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.9571521994060195</v>
+        <v>0.7770555463168621</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9416843614564124</v>
+        <v>0.8652492483144577</v>
       </c>
       <c r="G109" t="n">
-        <v>1.696583642189635</v>
+        <v>1.301635635661479</v>
       </c>
       <c r="H109" t="n">
-        <v>1.429489004824449</v>
+        <v>1.36413568840944</v>
       </c>
       <c r="I109" t="n">
-        <v>0.04284780059398041</v>
+        <v>0.2229444536831379</v>
       </c>
       <c r="J109" t="n">
-        <v>0.01892181209827415</v>
+        <v>0.09093756566714688</v>
       </c>
     </row>
     <row r="110">
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.8578362069474814</v>
+        <v>0.7006120612312277</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9634277493602798</v>
+        <v>0.8750504646560263</v>
       </c>
       <c r="G110" t="n">
-        <v>1.410245482526397</v>
+        <v>1.374703549680598</v>
       </c>
       <c r="H110" t="n">
-        <v>1.63050918668594</v>
+        <v>1.774758580954019</v>
       </c>
       <c r="I110" t="n">
-        <v>0.142163793052518</v>
+        <v>0.2993879387687719</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1438381685571989</v>
+        <v>0.2223757215606053</v>
       </c>
     </row>
     <row r="111">
@@ -4427,22 +4427,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1.01828192973407</v>
+        <v>0.9679659494144807</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9093182561002446</v>
+        <v>0.9083856248233808</v>
       </c>
       <c r="G111" t="n">
-        <v>1.707284397260341</v>
+        <v>1.444628600178846</v>
       </c>
       <c r="H111" t="n">
-        <v>1.292513791412008</v>
+        <v>1.538493225971637</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.01828192973407017</v>
+        <v>0.03203405058551889</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0132636789088233</v>
+        <v>0.01427571308815878</v>
       </c>
     </row>
     <row r="112">
@@ -4463,22 +4463,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.9027977352075907</v>
+        <v>0.7227573759465888</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5975847414917935</v>
+        <v>0.4775132937661701</v>
       </c>
       <c r="G112" t="n">
-        <v>1.13839693380933</v>
+        <v>1.211569569480895</v>
       </c>
       <c r="H112" t="n">
-        <v>1.090181682077495</v>
+        <v>1.03589947362837</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0972022647924089</v>
+        <v>0.2772426240534108</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1862335741086656</v>
+        <v>0.3497419538965397</v>
       </c>
     </row>
     <row r="113">
@@ -4499,22 +4499,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.9263052906297137</v>
+        <v>0.7971117955307655</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8234435823174392</v>
+        <v>0.7536497944151924</v>
       </c>
       <c r="G113" t="n">
-        <v>1.418642271198689</v>
+        <v>1.343633906446779</v>
       </c>
       <c r="H113" t="n">
-        <v>1.337734886725148</v>
+        <v>1.449717093518008</v>
       </c>
       <c r="I113" t="n">
-        <v>0.07369470937028633</v>
+        <v>0.2028882044692345</v>
       </c>
       <c r="J113" t="n">
-        <v>0.114445140524896</v>
+        <v>0.1954644628484347</v>
       </c>
     </row>
     <row r="114">
@@ -4535,22 +4535,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.8304770475327534</v>
+        <v>0.6288790021458698</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8715569748132915</v>
+        <v>0.7878840467039845</v>
       </c>
       <c r="G114" t="n">
-        <v>1.349306739516918</v>
+        <v>0.9464258966182736</v>
       </c>
       <c r="H114" t="n">
-        <v>1.414104757801949</v>
+        <v>3.470789475732043</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1695229524672465</v>
+        <v>0.3711209978541301</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2293793112880397</v>
+        <v>0.3033619553945293</v>
       </c>
     </row>
     <row r="115">
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1.029976880033298</v>
+        <v>0.8378739108546539</v>
       </c>
       <c r="F115" t="n">
-        <v>1.018077345793804</v>
+        <v>0.9925988955322302</v>
       </c>
       <c r="G115" t="n">
-        <v>1.624254559256638</v>
+        <v>1.581601412429158</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9864025532780601</v>
+        <v>1.062081530037448</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.02997688003329912</v>
+        <v>0.1621260891453455</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.02136321313870515</v>
+        <v>0.004197469389462749</v>
       </c>
     </row>
     <row r="116">
@@ -4607,22 +4607,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.8927127961328235</v>
+        <v>0.5291282878970165</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7803344438247464</v>
+        <v>0.6248741541307026</v>
       </c>
       <c r="G116" t="n">
-        <v>1.203311398409259</v>
+        <v>0.9077464815488605</v>
       </c>
       <c r="H116" t="n">
-        <v>1.097430281212505</v>
+        <v>1.184630236839949</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1072872038671773</v>
+        <v>0.470871712102984</v>
       </c>
       <c r="J116" t="n">
-        <v>0.07584115255266866</v>
+        <v>0.259954519948434</v>
       </c>
     </row>
     <row r="117">
@@ -4643,22 +4643,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.9177222412329585</v>
+        <v>0.6652937336325134</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8899895881439472</v>
+        <v>0.8017856987889725</v>
       </c>
       <c r="G117" t="n">
-        <v>1.392290899060938</v>
+        <v>1.145257930198764</v>
       </c>
       <c r="H117" t="n">
-        <v>1.165979197430838</v>
+        <v>1.905833747536479</v>
       </c>
       <c r="I117" t="n">
-        <v>0.08227775876704098</v>
+        <v>0.3347062663674862</v>
       </c>
       <c r="J117" t="n">
-        <v>0.09461908356733417</v>
+        <v>0.1891713149108084</v>
       </c>
     </row>
     <row r="118">
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.7883120984216935</v>
+        <v>0.6472149308039452</v>
       </c>
       <c r="F118" t="n">
-        <v>1.047066866003315</v>
+        <v>0.9956152197239989</v>
       </c>
       <c r="G118" t="n">
-        <v>9.766340876329259</v>
+        <v>30.50617934603077</v>
       </c>
       <c r="H118" t="n">
-        <v>1.190393003761361</v>
+        <v>1.382146189188</v>
       </c>
       <c r="I118" t="n">
-        <v>0.2116879015783057</v>
+        <v>0.3527850691960542</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1021534783657162</v>
+        <v>0.1462726107192893</v>
       </c>
     </row>
     <row r="119">
@@ -4715,22 +4715,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1.060311610482471</v>
+        <v>0.9251709774052461</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8004750496283638</v>
+        <v>0.8399279148422621</v>
       </c>
       <c r="G119" t="n">
-        <v>1.652845438978618</v>
+        <v>1.436197922366683</v>
       </c>
       <c r="H119" t="n">
-        <v>1.520214303687909</v>
+        <v>1.181697690308174</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.0603116104824708</v>
+        <v>0.07482902259475366</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.04552854108709159</v>
+        <v>-0.0970593122559662</v>
       </c>
     </row>
     <row r="120">
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.8495862206538889</v>
+        <v>0.6825101479207514</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8529856133948399</v>
+        <v>0.74391161610635</v>
       </c>
       <c r="G120" t="n">
-        <v>1.204022596692964</v>
+        <v>1.249530229120202</v>
       </c>
       <c r="H120" t="n">
-        <v>1.077065460367632</v>
+        <v>1.050898241630711</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1504137793461123</v>
+        <v>0.3174898520792496</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1025553525012496</v>
+        <v>0.2173144686113792</v>
       </c>
     </row>
     <row r="121">
@@ -4787,22 +4787,22 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.899403309852684</v>
+        <v>0.7516320187099811</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9001758430088395</v>
+        <v>0.8598182502242037</v>
       </c>
       <c r="G121" t="n">
-        <v>4.207736304000279</v>
+        <v>11.06396916583922</v>
       </c>
       <c r="H121" t="n">
-        <v>1.262557589272301</v>
+        <v>1.204914040375628</v>
       </c>
       <c r="I121" t="n">
-        <v>0.1005966901473161</v>
+        <v>0.2483679812900191</v>
       </c>
       <c r="J121" t="n">
-        <v>0.05306009659329129</v>
+        <v>0.08884258902490054</v>
       </c>
     </row>
     <row r="122">
@@ -4823,22 +4823,22 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.3722341431707955</v>
+        <v>0.4864572990082536</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9605418620307424</v>
+        <v>0.9632367554157353</v>
       </c>
       <c r="G122" t="n">
-        <v>1.734783850532849</v>
+        <v>1.673525552358506</v>
       </c>
       <c r="H122" t="n">
-        <v>1.696570904357279</v>
+        <v>1.559696465900668</v>
       </c>
       <c r="I122" t="n">
-        <v>0.6277658568292044</v>
+        <v>0.5135427009917461</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2486013380886696</v>
+        <v>0.2464932162425313</v>
       </c>
     </row>
     <row r="123">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.544796271325551</v>
+        <v>0.7931083567285487</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9018160225657248</v>
+        <v>0.8495796695500204</v>
       </c>
       <c r="G123" t="n">
-        <v>1.269433319148058</v>
+        <v>1.157785568105737</v>
       </c>
       <c r="H123" t="n">
-        <v>3.310139788460186</v>
+        <v>1.98353636296977</v>
       </c>
       <c r="I123" t="n">
-        <v>0.4552037286744489</v>
+        <v>0.206891643271451</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.0997423687782264</v>
+        <v>-0.03604142627513429</v>
       </c>
     </row>
     <row r="124">
@@ -4895,22 +4895,22 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.3132838120517466</v>
+        <v>0.3868553561967087</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4740627593761687</v>
+        <v>0.4875273084796257</v>
       </c>
       <c r="G124" t="n">
-        <v>1.120293967592848</v>
+        <v>1.057641101295663</v>
       </c>
       <c r="H124" t="n">
-        <v>1.198188801010676</v>
+        <v>1.16954279133355</v>
       </c>
       <c r="I124" t="n">
-        <v>0.6867161879482535</v>
+        <v>0.6131446438032915</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4442356715712422</v>
+        <v>0.4284505968272863</v>
       </c>
     </row>
     <row r="125">
@@ -4931,22 +4931,22 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.4101047421826977</v>
+        <v>0.5554736706445038</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7788068813242121</v>
+        <v>0.7667812444817937</v>
       </c>
       <c r="G125" t="n">
-        <v>1.374837045757919</v>
+        <v>1.296317407253301</v>
       </c>
       <c r="H125" t="n">
-        <v>2.068299831276045</v>
+        <v>1.570925206734663</v>
       </c>
       <c r="I125" t="n">
-        <v>0.5898952578173021</v>
+        <v>0.444526329355496</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1976982136272283</v>
+        <v>0.2129674622648943</v>
       </c>
     </row>
     <row r="126">
@@ -4967,22 +4967,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.581854619012098</v>
+        <v>0.5841407618421673</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6347853744833264</v>
+        <v>0.6103974571772437</v>
       </c>
       <c r="G126" t="n">
-        <v>1.652062319537271</v>
+        <v>1.583985526336369</v>
       </c>
       <c r="H126" t="n">
-        <v>1.587848190790962</v>
+        <v>1.626743491798519</v>
       </c>
       <c r="I126" t="n">
-        <v>0.418145380987902</v>
+        <v>0.4158592381578327</v>
       </c>
       <c r="J126" t="n">
-        <v>0.2724628591950972</v>
+        <v>0.3004142209313305</v>
       </c>
     </row>
     <row r="127">
@@ -5003,22 +5003,22 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.8183290261301512</v>
+        <v>0.7956962886128364</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8782978584282709</v>
+        <v>0.926912476031164</v>
       </c>
       <c r="G127" t="n">
-        <v>1.198067252305405</v>
+        <v>1.213177469323046</v>
       </c>
       <c r="H127" t="n">
-        <v>1.225641649650432</v>
+        <v>1.284102286001835</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1816709738698491</v>
+        <v>0.204303711387164</v>
       </c>
       <c r="J127" t="n">
-        <v>0.01818066388331285</v>
+        <v>-0.03616396547267153</v>
       </c>
     </row>
     <row r="128">
@@ -5039,22 +5039,22 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.5055462111575321</v>
+        <v>0.5078832496065692</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6915664852343072</v>
+        <v>0.6527101810354292</v>
       </c>
       <c r="G128" t="n">
-        <v>1.463670085655297</v>
+        <v>1.380196540286705</v>
       </c>
       <c r="H128" t="n">
-        <v>1.250600618591065</v>
+        <v>1.237575008258407</v>
       </c>
       <c r="I128" t="n">
-        <v>0.4944537888424677</v>
+        <v>0.4921167503934306</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3735046644442812</v>
+        <v>0.408704885763976</v>
       </c>
     </row>
     <row r="129">
@@ -5075,22 +5075,22 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.6352432854332604</v>
+        <v>0.6292401000205242</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7348832393819681</v>
+        <v>0.7300067047479457</v>
       </c>
       <c r="G129" t="n">
-        <v>1.437933219165991</v>
+        <v>1.392453178648706</v>
       </c>
       <c r="H129" t="n">
-        <v>1.354696819677487</v>
+        <v>1.382806928686254</v>
       </c>
       <c r="I129" t="n">
-        <v>0.3647567145667396</v>
+        <v>0.3707598999794756</v>
       </c>
       <c r="J129" t="n">
-        <v>0.2213827291742302</v>
+        <v>0.2243183804075448</v>
       </c>
     </row>
     <row r="130">
@@ -5111,22 +5111,22 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.5096091969045495</v>
+        <v>0.4056786830939653</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8722712301641752</v>
+        <v>0.9077915766050143</v>
       </c>
       <c r="G130" t="n">
-        <v>1.314877466243265</v>
+        <v>1.157804593912918</v>
       </c>
       <c r="H130" t="n">
-        <v>2.151016703402629</v>
+        <v>2.15299130053022</v>
       </c>
       <c r="I130" t="n">
-        <v>0.4903908030954501</v>
+        <v>0.5943213169060344</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2248455222219753</v>
+        <v>0.1932799327084235</v>
       </c>
     </row>
     <row r="131">
@@ -5147,22 +5147,22 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.790243383970458</v>
+        <v>0.6303854950317707</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9083054045927156</v>
+        <v>0.9382096638602997</v>
       </c>
       <c r="G131" t="n">
-        <v>1.480974784365055</v>
+        <v>1.532706355633372</v>
       </c>
       <c r="H131" t="n">
-        <v>3.114493552155385</v>
+        <v>2.694189755174022</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2097566160295417</v>
+        <v>0.3696145049682291</v>
       </c>
       <c r="J131" t="n">
-        <v>0.01436276315534124</v>
+        <v>-0.01808750227889822</v>
       </c>
     </row>
     <row r="132">
@@ -5183,22 +5183,22 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.4754450689502783</v>
+        <v>0.3588715682226853</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4470665117749923</v>
+        <v>0.4059721939741846</v>
       </c>
       <c r="G132" t="n">
-        <v>1.198887514611811</v>
+        <v>1.020062929204555</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9561970653477048</v>
+        <v>0.8880511172045058</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5245549310497215</v>
+        <v>0.6411284317773145</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3912031346137747</v>
+        <v>0.4471636935091112</v>
       </c>
     </row>
     <row r="133">
@@ -5219,22 +5219,22 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.5917658832750953</v>
+        <v>0.4649785821161405</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7425477155106276</v>
+        <v>0.7506578114798329</v>
       </c>
       <c r="G133" t="n">
-        <v>1.331579921740043</v>
+        <v>1.236857959583615</v>
       </c>
       <c r="H133" t="n">
-        <v>2.073902440301906</v>
+        <v>1.911744057636249</v>
       </c>
       <c r="I133" t="n">
-        <v>0.4082341167249048</v>
+        <v>0.5350214178838595</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2101371399970304</v>
+        <v>0.2074520413128788</v>
       </c>
     </row>
     <row r="134">
@@ -5255,22 +5255,22 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.3978921596983683</v>
+        <v>0.5612420496354726</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7383294253776133</v>
+        <v>0.7712257486712371</v>
       </c>
       <c r="G134" t="n">
-        <v>1.174271038154185</v>
+        <v>1.230419595462171</v>
       </c>
       <c r="H134" t="n">
-        <v>4.211229911125963</v>
+        <v>2.752908508438838</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6021078403016316</v>
+        <v>0.4387579503645272</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3471775836540236</v>
+        <v>0.3180910316038212</v>
       </c>
     </row>
     <row r="135">
@@ -5291,22 +5291,22 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.5288995488494131</v>
+        <v>0.8134763057583901</v>
       </c>
       <c r="F135" t="n">
-        <v>1.047391513980836</v>
+        <v>0.9692745354477311</v>
       </c>
       <c r="G135" t="n">
-        <v>2.589719942258105</v>
+        <v>2.018887750754736</v>
       </c>
       <c r="H135" t="n">
-        <v>1.291733581448159</v>
+        <v>1.13544575959338</v>
       </c>
       <c r="I135" t="n">
-        <v>0.4711004511505865</v>
+        <v>0.1865236942416094</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.05077199345750372</v>
+        <v>0.02759710936645632</v>
       </c>
     </row>
     <row r="136">
@@ -5327,22 +5327,22 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.3194368509334859</v>
+        <v>0.4892284633784841</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4763776768013489</v>
+        <v>0.5539336099505657</v>
       </c>
       <c r="G136" t="n">
-        <v>1.075330964649444</v>
+        <v>1.260380263683827</v>
       </c>
       <c r="H136" t="n">
-        <v>1.140732295137393</v>
+        <v>1.114920343987104</v>
       </c>
       <c r="I136" t="n">
-        <v>0.6805631490665143</v>
+        <v>0.5107715366215162</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4358205661350425</v>
+        <v>0.343970203307819</v>
       </c>
     </row>
     <row r="137">
@@ -5363,22 +5363,22 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.4154095198270891</v>
+        <v>0.6213156062574491</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7540328720532656</v>
+        <v>0.764811298023178</v>
       </c>
       <c r="G137" t="n">
-        <v>1.613107315020578</v>
+        <v>1.503229203300245</v>
       </c>
       <c r="H137" t="n">
-        <v>2.214565262570504</v>
+        <v>1.667758204006441</v>
       </c>
       <c r="I137" t="n">
-        <v>0.5845904801729106</v>
+        <v>0.3786843937425505</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2440753854438544</v>
+        <v>0.2298861147593654</v>
       </c>
     </row>
     <row r="138">
@@ -5399,22 +5399,22 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.4945829675411934</v>
+        <v>0.48004122757593</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9427716347961854</v>
+        <v>0.9621322886192086</v>
       </c>
       <c r="G138" t="n">
-        <v>35.43220813757314</v>
+        <v>38.61648818941122</v>
       </c>
       <c r="H138" t="n">
-        <v>1.360018010853076</v>
+        <v>1.413766617017843</v>
       </c>
       <c r="I138" t="n">
-        <v>0.5054170324588061</v>
+        <v>0.5199587724240696</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1915853127621148</v>
+        <v>0.1749837983259662</v>
       </c>
     </row>
     <row r="139">
@@ -5435,22 +5435,22 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.7952117502630974</v>
+        <v>0.7462578154583798</v>
       </c>
       <c r="F139" t="n">
-        <v>0.85713380232471</v>
+        <v>0.8379394257788441</v>
       </c>
       <c r="G139" t="n">
-        <v>1.203867025796918</v>
+        <v>1.205985651417732</v>
       </c>
       <c r="H139" t="n">
-        <v>2.448128305864195</v>
+        <v>2.286589694823829</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2047882497369025</v>
+        <v>0.2537421845416201</v>
       </c>
       <c r="J139" t="n">
-        <v>-0.1195325254385435</v>
+        <v>-0.09446207693875253</v>
       </c>
     </row>
     <row r="140">
@@ -5471,22 +5471,22 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.4895193200876338</v>
+        <v>0.4649682433607579</v>
       </c>
       <c r="F140" t="n">
-        <v>0.564927726149651</v>
+        <v>0.5516873537481295</v>
       </c>
       <c r="G140" t="n">
-        <v>1.201281119480535</v>
+        <v>1.139634153399417</v>
       </c>
       <c r="H140" t="n">
-        <v>1.163630625409678</v>
+        <v>1.078026366626187</v>
       </c>
       <c r="I140" t="n">
-        <v>0.5104806799123669</v>
+        <v>0.5350317566392429</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4056272976998475</v>
+        <v>0.4195577804137868</v>
       </c>
     </row>
     <row r="141">
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.5931046792973084</v>
+        <v>0.563755762131689</v>
       </c>
       <c r="F141" t="n">
-        <v>0.788277721090182</v>
+        <v>0.7839196893820608</v>
       </c>
       <c r="G141" t="n">
-        <v>12.61245209428351</v>
+        <v>13.65403599807613</v>
       </c>
       <c r="H141" t="n">
-        <v>1.657258980708983</v>
+        <v>1.592794226155953</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4068953207026918</v>
+        <v>0.4362442378683111</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1592266950078063</v>
+        <v>0.1666931672669999</v>
       </c>
     </row>
   </sheetData>
